--- a/data/case1/18/Q_device_2.xlsx
+++ b/data/case1/18/Q_device_2.xlsx
@@ -56,32 +56,32 @@
   <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="13.7109375" customWidth="true"/>
     <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.0049115086184967384</v>
+        <v>0.030114300841754746</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.004911508679522664</v>
+        <v>-0.030114300853086629</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.035359375113311345</v>
+        <v>0.01339667561690793</v>
       </c>
       <c r="B2" s="0">
-        <v>0.035359375060403438</v>
+        <v>-0.013396675629906367</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02958919145318362</v>
+        <v>-0.039365022973392207</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.02958919148453085</v>
+        <v>0.039365022935584061</v>
       </c>
     </row>
     <row r="4">
